--- a/iSpring/Usabiluty.xlsx
+++ b/iSpring/Usabiluty.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="159">
   <si>
     <t>Изменение заголовка слайда</t>
   </si>
@@ -439,7 +439,64 @@
     <t>Вписать новый заголовок</t>
   </si>
   <si>
-    <t>Старый заголовок выделяется, чтобы его можно было удалить</t>
+    <t>Нажать на текст с длительностью слайда</t>
+  </si>
+  <si>
+    <t>Вписать новое время</t>
+  </si>
+  <si>
+    <t>Старое время выделяется, чтобы его можно было удалить. Устанавливается введенное время.</t>
+  </si>
+  <si>
+    <t>Старый заголовок выделяется, чтобы его можно было удалить. Устанавливается введенный заголовок.</t>
+  </si>
+  <si>
+    <t>Изменение настройки перехода к слудующему слайду по целчку мыши и автопереход</t>
+  </si>
+  <si>
+    <t>Нажать на иконку часов(для автоперехода), с синим кружком в котором курсор</t>
+  </si>
+  <si>
+    <t>Соответствующие иконки выделяются, выделение чётко видно</t>
+  </si>
+  <si>
+    <t>Изменение переходов между слайдами</t>
+  </si>
+  <si>
+    <t>В столбце Branching у слайда нажать в центр ячейки</t>
+  </si>
+  <si>
+    <t>Выбрать используя выпадающие списки переходы</t>
+  </si>
+  <si>
+    <t>Нажать OK</t>
+  </si>
+  <si>
+    <t>В ячейке столба Branching отображается переход только на следующий слайд</t>
+  </si>
+  <si>
+    <t>Выбор докладчика</t>
+  </si>
+  <si>
+    <t>Нажать в столбце Presenter на название докладчика</t>
+  </si>
+  <si>
+    <t>Выбрать из списка докладчика</t>
+  </si>
+  <si>
+    <t>Название докладчика отображается над картинкой докладчика</t>
+  </si>
+  <si>
+    <t>Смена layout у слайда</t>
+  </si>
+  <si>
+    <t>Нажать в столбце Layout на название layout</t>
+  </si>
+  <si>
+    <t>Выбрать из списка layout</t>
+  </si>
+  <si>
+    <t>Название layout отображается над картинкой layout</t>
   </si>
 </sst>
 </file>
@@ -769,7 +826,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -786,9 +843,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -919,12 +973,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -934,6 +991,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -945,6 +1005,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1459,8 +1552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D5"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47:D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1487,1009 +1580,1009 @@
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="55" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" thickBot="1">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="28"/>
     </row>
     <row r="6" spans="1:4" ht="90">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="32"/>
+      <c r="D6" s="31"/>
     </row>
     <row r="7" spans="1:4" ht="90">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="34" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="90.75" thickBot="1">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="32"/>
+      <c r="D8" s="31"/>
     </row>
     <row r="9" spans="1:4" ht="45" customHeight="1" thickBot="1">
-      <c r="A9" s="25"/>
-      <c r="B9" s="43" t="s">
+      <c r="A9" s="24"/>
+      <c r="B9" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="29"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="28"/>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" thickBot="1">
-      <c r="A10" s="25"/>
-      <c r="B10" s="47" t="s">
+      <c r="A10" s="24"/>
+      <c r="B10" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="26"/>
     </row>
     <row r="11" spans="1:4" ht="45">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="35"/>
+      <c r="D11" s="34"/>
     </row>
     <row r="12" spans="1:4" ht="45">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" ht="75.75" thickBot="1">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="12"/>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" thickBot="1">
-      <c r="A14" s="25"/>
-      <c r="B14" s="47" t="s">
+      <c r="A14" s="24"/>
+      <c r="B14" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
     </row>
     <row r="15" spans="1:4" ht="105">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="34" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="45">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="12"/>
+      <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" ht="90.75" thickBot="1">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="12"/>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" ht="75" customHeight="1" thickBot="1">
-      <c r="A18" s="25"/>
-      <c r="B18" s="43" t="s">
+      <c r="A18" s="24"/>
+      <c r="B18" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="29"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="28"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A19" s="25"/>
-      <c r="B19" s="47" t="s">
+      <c r="A19" s="24"/>
+      <c r="B19" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="27"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
     </row>
     <row r="20" spans="1:4" ht="120.75" thickBot="1">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="50" t="s">
+      <c r="D20" s="49" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A21" s="51"/>
-      <c r="B21" s="47" t="s">
+      <c r="A21" s="50"/>
+      <c r="B21" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="52"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="51"/>
     </row>
     <row r="22" spans="1:4" ht="105.75" thickBot="1">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="49" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" thickBot="1">
-      <c r="A23" s="25"/>
-      <c r="B23" s="43" t="s">
+      <c r="A23" s="24"/>
+      <c r="B23" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
     </row>
     <row r="24" spans="1:4" ht="60" customHeight="1" thickBot="1">
-      <c r="A24" s="25"/>
-      <c r="B24" s="47" t="s">
+      <c r="A24" s="24"/>
+      <c r="B24" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="27"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="26"/>
     </row>
     <row r="25" spans="1:4" ht="135">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="37"/>
+      <c r="D25" s="36"/>
     </row>
     <row r="26" spans="1:4" ht="75">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="37"/>
+      <c r="D26" s="36"/>
     </row>
     <row r="27" spans="1:4" ht="45">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="37"/>
+      <c r="D27" s="36"/>
     </row>
     <row r="28" spans="1:4" ht="90">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="37"/>
+      <c r="D28" s="36"/>
     </row>
     <row r="29" spans="1:4" ht="45">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="37"/>
+      <c r="D29" s="36"/>
     </row>
     <row r="30" spans="1:4" ht="90">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="37"/>
+      <c r="D30" s="36"/>
     </row>
     <row r="31" spans="1:4" ht="75">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="32"/>
+      <c r="D31" s="31"/>
     </row>
     <row r="32" spans="1:4" ht="30.75" thickBot="1">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="32"/>
+      <c r="D32" s="31"/>
     </row>
     <row r="33" spans="1:4" ht="60" customHeight="1" thickBot="1">
-      <c r="A33" s="25"/>
-      <c r="B33" s="47" t="s">
+      <c r="A33" s="24"/>
+      <c r="B33" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="27"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
     </row>
     <row r="34" spans="1:4" ht="90">
-      <c r="A34" s="20"/>
-      <c r="B34" s="36" t="s">
+      <c r="A34" s="19"/>
+      <c r="B34" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="32"/>
+      <c r="D34" s="31"/>
     </row>
     <row r="35" spans="1:4" ht="120.75" thickBot="1">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="32"/>
+      <c r="D35" s="31"/>
     </row>
     <row r="36" spans="1:4" ht="30" customHeight="1" thickBot="1">
-      <c r="A36" s="25"/>
-      <c r="B36" s="43" t="s">
+      <c r="A36" s="24"/>
+      <c r="B36" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="29"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="28"/>
     </row>
     <row r="37" spans="1:4" ht="120">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D37" s="32"/>
+      <c r="D37" s="31"/>
     </row>
     <row r="38" spans="1:4" ht="120">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D38" s="32"/>
+      <c r="D38" s="31"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="20"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="32"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="31"/>
     </row>
     <row r="40" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A40" s="20"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="32"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="31"/>
     </row>
     <row r="41" spans="1:4" ht="45" customHeight="1" thickBot="1">
-      <c r="A41" s="25"/>
-      <c r="B41" s="43" t="s">
+      <c r="A41" s="24"/>
+      <c r="B41" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="28"/>
-      <c r="D41" s="29"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="28"/>
     </row>
     <row r="42" spans="1:4" ht="105">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="36" t="s">
+      <c r="B42" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="32"/>
+      <c r="D42" s="31"/>
     </row>
     <row r="43" spans="1:4" ht="105">
-      <c r="A43" s="20" t="s">
+      <c r="A43" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="33" t="s">
+      <c r="B43" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="34" t="s">
+      <c r="C43" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="D43" s="32"/>
+      <c r="D43" s="31"/>
     </row>
     <row r="44" spans="1:4" ht="30">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B44" s="33" t="s">
+      <c r="B44" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="34" t="s">
+      <c r="C44" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D44" s="32"/>
+      <c r="D44" s="31"/>
     </row>
     <row r="45" spans="1:4" ht="75">
-      <c r="A45" s="20" t="s">
+      <c r="A45" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B45" s="36" t="s">
+      <c r="B45" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D45" s="37"/>
+      <c r="D45" s="36"/>
     </row>
     <row r="46" spans="1:4" ht="45.75" thickBot="1">
-      <c r="A46" s="21"/>
-      <c r="B46" s="36" t="s">
+      <c r="A46" s="20"/>
+      <c r="B46" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D46" s="12"/>
+      <c r="D46" s="11"/>
     </row>
     <row r="47" spans="1:4" ht="30" customHeight="1" thickBot="1">
-      <c r="A47" s="25"/>
-      <c r="B47" s="43" t="s">
+      <c r="A47" s="24"/>
+      <c r="B47" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="28"/>
-      <c r="D47" s="29"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="28"/>
     </row>
     <row r="48" spans="1:4" ht="60">
-      <c r="A48" s="20" t="s">
+      <c r="A48" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B48" s="36" t="s">
+      <c r="B48" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D48" s="12"/>
+      <c r="D48" s="11"/>
     </row>
     <row r="49" spans="1:4" ht="90">
-      <c r="A49" s="20" t="s">
+      <c r="A49" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B49" s="33" t="s">
+      <c r="B49" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="34" t="s">
+      <c r="C49" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="D49" s="12"/>
+      <c r="D49" s="11"/>
     </row>
     <row r="50" spans="1:4" ht="30">
-      <c r="A50" s="20" t="s">
+      <c r="A50" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B50" s="33" t="s">
+      <c r="B50" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="C50" s="34" t="s">
+      <c r="C50" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D50" s="12"/>
+      <c r="D50" s="11"/>
     </row>
     <row r="51" spans="1:4" ht="60">
-      <c r="A51" s="20" t="s">
+      <c r="A51" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B51" s="36" t="s">
+      <c r="B51" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D51" s="12"/>
+      <c r="D51" s="11"/>
     </row>
     <row r="52" spans="1:4" ht="45.75" thickBot="1">
-      <c r="A52" s="21"/>
-      <c r="B52" s="36" t="s">
+      <c r="A52" s="20"/>
+      <c r="B52" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D52" s="12"/>
+      <c r="D52" s="11"/>
     </row>
     <row r="53" spans="1:4" ht="30" customHeight="1" thickBot="1">
-      <c r="A53" s="25"/>
-      <c r="B53" s="43" t="s">
+      <c r="A53" s="24"/>
+      <c r="B53" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="48"/>
-      <c r="D53" s="49"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="48"/>
     </row>
     <row r="54" spans="1:4" ht="75">
-      <c r="A54" s="20" t="s">
+      <c r="A54" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B54" s="36" t="s">
+      <c r="B54" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D54" s="12"/>
+      <c r="D54" s="11"/>
     </row>
     <row r="55" spans="1:4" ht="45">
-      <c r="A55" s="20" t="s">
+      <c r="A55" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B55" s="33" t="s">
+      <c r="B55" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="C55" s="34" t="s">
+      <c r="C55" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="D55" s="12"/>
+      <c r="D55" s="11"/>
     </row>
     <row r="56" spans="1:4" ht="30">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="33" t="s">
+      <c r="B56" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="C56" s="34" t="s">
+      <c r="C56" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D56" s="38"/>
+      <c r="D56" s="37"/>
     </row>
     <row r="57" spans="1:4" ht="60">
-      <c r="A57" s="20" t="s">
+      <c r="A57" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B57" s="36" t="s">
+      <c r="B57" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D57" s="12"/>
+      <c r="D57" s="11"/>
     </row>
     <row r="58" spans="1:4" ht="45.75" thickBot="1">
-      <c r="A58" s="21"/>
-      <c r="B58" s="36" t="s">
+      <c r="A58" s="20"/>
+      <c r="B58" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D58" s="12"/>
+      <c r="D58" s="11"/>
     </row>
     <row r="59" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A59" s="25"/>
-      <c r="B59" s="43" t="s">
+      <c r="A59" s="24"/>
+      <c r="B59" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="28"/>
-      <c r="D59" s="29"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="28"/>
     </row>
     <row r="60" spans="1:4" ht="90">
-      <c r="A60" s="20" t="s">
+      <c r="A60" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B60" s="39" t="s">
+      <c r="B60" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C60" s="40" t="s">
+      <c r="C60" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="D60" s="12"/>
+      <c r="D60" s="11"/>
     </row>
     <row r="61" spans="1:4" ht="60.75" thickBot="1">
-      <c r="A61" s="21"/>
-      <c r="B61" s="41" t="s">
+      <c r="A61" s="20"/>
+      <c r="B61" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="C61" s="42" t="s">
+      <c r="C61" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="D61" s="19"/>
+      <c r="D61" s="18"/>
     </row>
     <row r="62" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A62" s="25"/>
-      <c r="B62" s="43" t="s">
+      <c r="A62" s="24"/>
+      <c r="B62" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C62" s="28"/>
-      <c r="D62" s="29"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="28"/>
     </row>
     <row r="63" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A63" s="22"/>
-      <c r="B63" s="44" t="s">
+      <c r="A63" s="21"/>
+      <c r="B63" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="C63" s="45"/>
-      <c r="D63" s="46"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="45"/>
     </row>
     <row r="64" spans="1:4" ht="90">
-      <c r="A64" s="20" t="s">
+      <c r="A64" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C64" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D64" s="12"/>
+      <c r="D64" s="11"/>
     </row>
     <row r="65" spans="1:4" ht="45">
-      <c r="A65" s="20" t="s">
+      <c r="A65" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="12"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="11"/>
     </row>
     <row r="66" spans="1:4" ht="60">
-      <c r="A66" s="20" t="s">
+      <c r="A66" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C66" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D66" s="12"/>
+      <c r="D66" s="11"/>
     </row>
     <row r="67" spans="1:4" ht="30.75" thickBot="1">
-      <c r="A67" s="20" t="s">
+      <c r="A67" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="C67" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D67" s="12"/>
+      <c r="D67" s="11"/>
     </row>
     <row r="68" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A68" s="25"/>
-      <c r="B68" s="47" t="s">
+      <c r="A68" s="24"/>
+      <c r="B68" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="C68" s="26"/>
-      <c r="D68" s="27"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="26"/>
     </row>
     <row r="69" spans="1:4" ht="60">
-      <c r="A69" s="20" t="s">
+      <c r="A69" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C69" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D69" s="12"/>
+      <c r="D69" s="11"/>
     </row>
     <row r="70" spans="1:4" ht="30">
-      <c r="A70" s="20" t="s">
+      <c r="A70" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="12"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="11"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="20" t="s">
+      <c r="A71" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C71" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D71" s="12"/>
+      <c r="D71" s="11"/>
     </row>
     <row r="72" spans="1:4" ht="30.75" thickBot="1">
-      <c r="A72" s="20" t="s">
+      <c r="A72" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C72" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D72" s="12"/>
+      <c r="D72" s="11"/>
     </row>
     <row r="73" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A73" s="25"/>
-      <c r="B73" s="47" t="s">
+      <c r="A73" s="24"/>
+      <c r="B73" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="C73" s="26"/>
-      <c r="D73" s="27"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="26"/>
     </row>
     <row r="74" spans="1:4" ht="90">
-      <c r="A74" s="20" t="s">
+      <c r="A74" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C74" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D74" s="12"/>
+      <c r="D74" s="11"/>
     </row>
     <row r="75" spans="1:4" ht="45">
-      <c r="A75" s="20" t="s">
+      <c r="A75" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="B75" s="11"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="12"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="11"/>
     </row>
     <row r="76" spans="1:4" ht="30">
-      <c r="A76" s="20" t="s">
+      <c r="A76" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C76" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D76" s="12"/>
+      <c r="D76" s="11"/>
     </row>
     <row r="77" spans="1:4" ht="30.75" thickBot="1">
-      <c r="A77" s="20" t="s">
+      <c r="A77" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="C77" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D77" s="12"/>
+      <c r="D77" s="11"/>
     </row>
     <row r="78" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A78" s="25"/>
-      <c r="B78" s="47" t="s">
+      <c r="A78" s="24"/>
+      <c r="B78" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="C78" s="26"/>
-      <c r="D78" s="27"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="26"/>
     </row>
     <row r="79" spans="1:4" ht="30" customHeight="1">
-      <c r="A79" s="20" t="s">
+      <c r="A79" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C79" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D79" s="12"/>
+      <c r="D79" s="11"/>
     </row>
     <row r="80" spans="1:4" ht="30">
-      <c r="A80" s="20" t="s">
+      <c r="A80" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C80" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D80" s="12"/>
+      <c r="D80" s="11"/>
     </row>
     <row r="81" spans="1:4" ht="45.75" thickBot="1">
-      <c r="A81" s="20"/>
-      <c r="B81" s="10" t="s">
+      <c r="A81" s="19"/>
+      <c r="B81" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C81" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D81" s="12"/>
+      <c r="D81" s="11"/>
     </row>
     <row r="82" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A82" s="25"/>
-      <c r="B82" s="47" t="s">
+      <c r="A82" s="24"/>
+      <c r="B82" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="C82" s="26"/>
-      <c r="D82" s="27"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="26"/>
     </row>
     <row r="83" spans="1:4" ht="60.75" thickBot="1">
-      <c r="A83" s="20" t="s">
+      <c r="A83" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C83" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D83" s="12"/>
+      <c r="D83" s="11"/>
     </row>
     <row r="84" spans="1:4" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A84" s="25"/>
-      <c r="B84" s="47" t="s">
+      <c r="A84" s="24"/>
+      <c r="B84" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="C84" s="26"/>
-      <c r="D84" s="27"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="26"/>
     </row>
     <row r="85" spans="1:4" ht="30" customHeight="1">
-      <c r="A85" s="20" t="s">
+      <c r="A85" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="12"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="11"/>
     </row>
     <row r="86" spans="1:4" ht="45">
-      <c r="A86" s="20" t="s">
+      <c r="A86" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C86" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D86" s="12"/>
+      <c r="D86" s="11"/>
     </row>
     <row r="87" spans="1:4" ht="45.75" thickBot="1">
-      <c r="A87" s="20" t="s">
+      <c r="A87" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C87" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D87" s="12"/>
+      <c r="D87" s="11"/>
     </row>
     <row r="88" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A88" s="25"/>
-      <c r="B88" s="47" t="s">
+      <c r="A88" s="24"/>
+      <c r="B88" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="C88" s="26"/>
-      <c r="D88" s="27"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="26"/>
     </row>
     <row r="89" spans="1:4" ht="30" customHeight="1" thickBot="1">
-      <c r="A89" s="20" t="s">
+      <c r="A89" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="B89" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C89" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D89" s="12"/>
+      <c r="D89" s="11"/>
     </row>
     <row r="90" spans="1:4" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A90" s="25"/>
-      <c r="B90" s="47" t="s">
+      <c r="A90" s="24"/>
+      <c r="B90" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="C90" s="26"/>
-      <c r="D90" s="27"/>
+      <c r="C90" s="25"/>
+      <c r="D90" s="26"/>
     </row>
     <row r="91" spans="1:4" ht="45" customHeight="1">
-      <c r="A91" s="23" t="s">
+      <c r="A91" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="B91" s="15" t="s">
+      <c r="B91" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C91" s="16" t="s">
+      <c r="C91" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="D91" s="12"/>
+      <c r="D91" s="11"/>
     </row>
     <row r="92" spans="1:4" ht="60.75" thickBot="1">
-      <c r="A92" s="23" t="s">
+      <c r="A92" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="B92" s="15" t="s">
+      <c r="B92" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C92" s="16" t="s">
+      <c r="C92" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D92" s="12"/>
+      <c r="D92" s="11"/>
     </row>
     <row r="93" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A93" s="25"/>
-      <c r="B93" s="47" t="s">
+      <c r="A93" s="24"/>
+      <c r="B93" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="C93" s="26"/>
-      <c r="D93" s="27"/>
+      <c r="C93" s="25"/>
+      <c r="D93" s="26"/>
     </row>
     <row r="94" spans="1:4" ht="30" customHeight="1" thickBot="1">
-      <c r="A94" s="20" t="s">
+      <c r="A94" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="B94" s="10" t="s">
+      <c r="B94" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C94" s="11" t="s">
+      <c r="C94" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D94" s="12"/>
+      <c r="D94" s="11"/>
     </row>
     <row r="95" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A95" s="25"/>
-      <c r="B95" s="47" t="s">
+      <c r="A95" s="24"/>
+      <c r="B95" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="C95" s="26"/>
-      <c r="D95" s="27"/>
+      <c r="C95" s="25"/>
+      <c r="D95" s="26"/>
     </row>
     <row r="96" spans="1:4" ht="60">
-      <c r="A96" s="20" t="s">
+      <c r="A96" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="B96" s="10" t="s">
+      <c r="B96" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C96" s="11" t="s">
+      <c r="C96" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D96" s="12"/>
+      <c r="D96" s="11"/>
     </row>
     <row r="97" spans="1:4" ht="45">
-      <c r="A97" s="20" t="s">
+      <c r="A97" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="B97" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C97" s="11" t="s">
+      <c r="C97" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D97" s="12"/>
+      <c r="D97" s="11"/>
     </row>
     <row r="98" spans="1:4" ht="30.75" thickBot="1">
-      <c r="A98" s="24" t="s">
+      <c r="A98" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B98" s="17" t="s">
+      <c r="B98" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C98" s="18" t="s">
+      <c r="C98" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D98" s="19"/>
+      <c r="D98" s="18"/>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="5"/>
@@ -2544,34 +2637,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.85546875" customWidth="1"/>
     <col min="2" max="2" width="34.28515625" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" customWidth="1"/>
+    <col min="4" max="4" width="37.5703125" customWidth="1"/>
     <col min="5" max="5" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="56" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2579,60 +2672,151 @@
       <c r="A4" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="68" t="s">
-        <v>139</v>
-      </c>
-      <c r="D4" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1">
+      <c r="C4" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="67" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.5" customHeight="1" thickBot="1">
       <c r="A5" s="64"/>
       <c r="B5" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="67"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="61"/>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="8"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="8"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="8"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="8"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="8"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="8"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="8"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="8"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="8"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="68"/>
+    </row>
+    <row r="6" spans="1:5" ht="45" customHeight="1">
+      <c r="A6" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="72" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="67" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A7" s="73"/>
+      <c r="B7" s="65" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="66"/>
+      <c r="D7" s="68"/>
+    </row>
+    <row r="8" spans="1:5" ht="48.75" customHeight="1" thickBot="1">
+      <c r="A8" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="75" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="76" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="77" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30">
+      <c r="A9" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="72" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" s="67" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30">
+      <c r="A10" s="78"/>
+      <c r="B10" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="62"/>
+      <c r="D10" s="79"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A11" s="73"/>
+      <c r="B11" s="65" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="66"/>
+      <c r="D11" s="68"/>
+    </row>
+    <row r="12" spans="1:5" ht="30">
+      <c r="A12" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="80" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" s="67" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A13" s="73"/>
+      <c r="B13" s="81" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="66"/>
+      <c r="D13" s="68"/>
+    </row>
+    <row r="14" spans="1:5" ht="30">
+      <c r="A14" s="71" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" s="80" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="D14" s="67" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A15" s="73"/>
+      <c r="B15" s="81" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="66"/>
+      <c r="D15" s="68"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="15">
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/iSpring/Usabiluty.xlsx
+++ b/iSpring/Usabiluty.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="166">
   <si>
     <t>Изменение заголовка слайда</t>
   </si>
@@ -472,9 +472,6 @@
     <t>Нажать OK</t>
   </si>
   <si>
-    <t>В ячейке столба Branching отображается переход только на следующий слайд</t>
-  </si>
-  <si>
     <t>Выбор докладчика</t>
   </si>
   <si>
@@ -497,6 +494,30 @@
   </si>
   <si>
     <t>Название layout отображается над картинкой layout</t>
+  </si>
+  <si>
+    <t>Смена playlist  у слайда</t>
+  </si>
+  <si>
+    <t>Нажать в столбце Playlist в центр ячейки</t>
+  </si>
+  <si>
+    <t>Выбрать из списка playlist</t>
+  </si>
+  <si>
+    <t>Название playlist отображается в центре ячейки</t>
+  </si>
+  <si>
+    <t>В ячейке столба Branching отображается переход только на следующий слайд, отображается посередине ячейки</t>
+  </si>
+  <si>
+    <t>Выбрать слайд</t>
+  </si>
+  <si>
+    <t>Нажать на кнопку в ленте в разделе Display Slides на Hide slide</t>
+  </si>
+  <si>
+    <t>Над слайдом появится надпись hidden, она будет четко видна, отображается в центре слайда, кнопка Hide slide четко выделена и это хорошо видно</t>
   </si>
 </sst>
 </file>
@@ -826,7 +847,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -994,7 +1015,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1030,14 +1057,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1552,8 +1588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47:D47"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59:D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2635,10 +2671,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E15"/>
+  <dimension ref="A2:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:D15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2675,10 +2711,10 @@
       <c r="B4" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="68" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2687,124 +2723,174 @@
       <c r="B5" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="68"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="70"/>
     </row>
     <row r="6" spans="1:5" ht="45" customHeight="1">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="74" t="s">
         <v>139</v>
       </c>
       <c r="C6" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="68" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A7" s="73"/>
+      <c r="A7" s="75"/>
       <c r="B7" s="65" t="s">
         <v>140</v>
       </c>
       <c r="C7" s="66"/>
-      <c r="D7" s="68"/>
+      <c r="D7" s="70"/>
     </row>
     <row r="8" spans="1:5" ht="48.75" customHeight="1" thickBot="1">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="76" t="s">
         <v>143</v>
       </c>
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="77" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="78" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="77" t="s">
+      <c r="D8" s="79" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30">
-      <c r="A9" s="71" t="s">
+    <row r="9" spans="1:5" ht="30" customHeight="1">
+      <c r="A9" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="82" t="s">
         <v>147</v>
       </c>
       <c r="C9" s="61" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="67" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30">
+      <c r="A10" s="80"/>
+      <c r="B10" s="83" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="62"/>
+      <c r="D10" s="81"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A11" s="75"/>
+      <c r="B11" s="84" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="66"/>
+      <c r="D11" s="69"/>
+    </row>
+    <row r="12" spans="1:5" ht="30">
+      <c r="A12" s="73" t="s">
         <v>150</v>
       </c>
-      <c r="D9" s="67" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30">
-      <c r="A10" s="78"/>
-      <c r="B10" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="79"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A11" s="73"/>
-      <c r="B11" s="65" t="s">
-        <v>149</v>
-      </c>
-      <c r="C11" s="66"/>
-      <c r="D11" s="68"/>
-    </row>
-    <row r="12" spans="1:5" ht="30">
-      <c r="A12" s="71" t="s">
+      <c r="B12" s="85" t="s">
         <v>151</v>
       </c>
-      <c r="B12" s="80" t="s">
+      <c r="C12" s="61" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" s="68" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A13" s="75"/>
+      <c r="B13" s="86" t="s">
         <v>152</v>
       </c>
-      <c r="C12" s="61" t="s">
+      <c r="C13" s="66"/>
+      <c r="D13" s="70"/>
+    </row>
+    <row r="14" spans="1:5" ht="30">
+      <c r="A14" s="73" t="s">
         <v>154</v>
       </c>
-      <c r="D12" s="67" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A13" s="73"/>
-      <c r="B13" s="81" t="s">
-        <v>153</v>
-      </c>
-      <c r="C13" s="66"/>
-      <c r="D13" s="68"/>
-    </row>
-    <row r="14" spans="1:5" ht="30">
-      <c r="A14" s="71" t="s">
+      <c r="B14" s="85" t="s">
         <v>155</v>
       </c>
-      <c r="B14" s="80" t="s">
+      <c r="C14" s="61" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" s="68" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A15" s="75"/>
+      <c r="B15" s="86" t="s">
         <v>156</v>
       </c>
-      <c r="C14" s="61" t="s">
+      <c r="C15" s="66"/>
+      <c r="D15" s="70"/>
+    </row>
+    <row r="16" spans="1:5" ht="30">
+      <c r="A16" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="D14" s="67" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A15" s="73"/>
-      <c r="B15" s="81" t="s">
-        <v>157</v>
-      </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="68"/>
+      <c r="B16" s="85" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" s="61" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="68" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A17" s="75"/>
+      <c r="B17" s="86" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="66"/>
+      <c r="D17" s="70"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="85" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="D18" s="68" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="51.75" customHeight="1" thickBot="1">
+      <c r="A19" s="75"/>
+      <c r="B19" s="86" t="s">
+        <v>164</v>
+      </c>
+      <c r="C19" s="66"/>
+      <c r="D19" s="70"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="21">
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="D9:D11"/>

--- a/iSpring/Usabiluty.xlsx
+++ b/iSpring/Usabiluty.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="176">
   <si>
     <t>Изменение заголовка слайда</t>
   </si>
@@ -518,6 +518,36 @@
   </si>
   <si>
     <t>Над слайдом появится надпись hidden, она будет четко видна, отображается в центре слайда, кнопка Hide slide четко выделена и это хорошо видно</t>
+  </si>
+  <si>
+    <t>Поиск редактора playlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нажать в ленте в разделе Advanced на playlist </t>
+  </si>
+  <si>
+    <t>В выпадающем списке выбрать Manage playlist…</t>
+  </si>
+  <si>
+    <t>Manage playlist… находится в конце списка и отделён от имеющихся playlist линией</t>
+  </si>
+  <si>
+    <t>Редактирование списка playlist</t>
+  </si>
+  <si>
+    <t>Добавить новый</t>
+  </si>
+  <si>
+    <t>Добавить в него звуки</t>
+  </si>
+  <si>
+    <t>Переместить несколько из них в списке</t>
+  </si>
+  <si>
+    <t>Удалить один из звуков</t>
+  </si>
+  <si>
+    <t>Кнопки сгруппированы. Отдельно стоят кнопки редактирования списков playlist и редактирования списка звуков. Кнопки перемещения звуков в одной группе, удаления и добавления в другой.  Кнопки перемещения вверх расположена над кнопкой перемещения вниз.</t>
   </si>
 </sst>
 </file>
@@ -847,7 +877,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1060,6 +1090,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1073,6 +1106,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1588,7 +1624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
+    <sheetView topLeftCell="A62" workbookViewId="0">
       <selection activeCell="B59" sqref="B59:D59"/>
     </sheetView>
   </sheetViews>
@@ -2671,10 +2707,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E19"/>
+  <dimension ref="A2:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2766,7 +2802,7 @@
       <c r="A9" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="83" t="s">
         <v>147</v>
       </c>
       <c r="C9" s="61" t="s">
@@ -2778,7 +2814,7 @@
     </row>
     <row r="10" spans="1:5" ht="30">
       <c r="A10" s="80"/>
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="84" t="s">
         <v>148</v>
       </c>
       <c r="C10" s="62"/>
@@ -2786,7 +2822,7 @@
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1">
       <c r="A11" s="75"/>
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="85" t="s">
         <v>149</v>
       </c>
       <c r="C11" s="66"/>
@@ -2796,7 +2832,7 @@
       <c r="A12" s="73" t="s">
         <v>150</v>
       </c>
-      <c r="B12" s="85" t="s">
+      <c r="B12" s="86" t="s">
         <v>151</v>
       </c>
       <c r="C12" s="61" t="s">
@@ -2808,7 +2844,7 @@
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1">
       <c r="A13" s="75"/>
-      <c r="B13" s="86" t="s">
+      <c r="B13" s="87" t="s">
         <v>152</v>
       </c>
       <c r="C13" s="66"/>
@@ -2818,7 +2854,7 @@
       <c r="A14" s="73" t="s">
         <v>154</v>
       </c>
-      <c r="B14" s="85" t="s">
+      <c r="B14" s="86" t="s">
         <v>155</v>
       </c>
       <c r="C14" s="61" t="s">
@@ -2830,7 +2866,7 @@
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1">
       <c r="A15" s="75"/>
-      <c r="B15" s="86" t="s">
+      <c r="B15" s="87" t="s">
         <v>156</v>
       </c>
       <c r="C15" s="66"/>
@@ -2840,7 +2876,7 @@
       <c r="A16" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="B16" s="85" t="s">
+      <c r="B16" s="86" t="s">
         <v>159</v>
       </c>
       <c r="C16" s="61" t="s">
@@ -2852,7 +2888,7 @@
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1">
       <c r="A17" s="75"/>
-      <c r="B17" s="86" t="s">
+      <c r="B17" s="87" t="s">
         <v>160</v>
       </c>
       <c r="C17" s="66"/>
@@ -2862,7 +2898,7 @@
       <c r="A18" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="85" t="s">
+      <c r="B18" s="86" t="s">
         <v>163</v>
       </c>
       <c r="C18" s="61" t="s">
@@ -2874,17 +2910,83 @@
     </row>
     <row r="19" spans="1:4" ht="51.75" customHeight="1" thickBot="1">
       <c r="A19" s="75"/>
-      <c r="B19" s="86" t="s">
+      <c r="B19" s="87" t="s">
         <v>164</v>
       </c>
       <c r="C19" s="66"/>
       <c r="D19" s="70"/>
     </row>
+    <row r="20" spans="1:4" ht="30">
+      <c r="A20" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="B20" s="86" t="s">
+        <v>167</v>
+      </c>
+      <c r="C20" s="61" t="s">
+        <v>169</v>
+      </c>
+      <c r="D20" s="68" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A21" s="64"/>
+      <c r="B21" s="87" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21" s="66"/>
+      <c r="D21" s="70"/>
+    </row>
+    <row r="22" spans="1:4" ht="15" customHeight="1">
+      <c r="A22" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" s="86" t="s">
+        <v>171</v>
+      </c>
+      <c r="C22" s="61" t="s">
+        <v>175</v>
+      </c>
+      <c r="D22" s="68" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="36.75" customHeight="1">
+      <c r="A23" s="80"/>
+      <c r="B23" s="88" t="s">
+        <v>172</v>
+      </c>
+      <c r="C23" s="62"/>
+      <c r="D23" s="82"/>
+    </row>
+    <row r="24" spans="1:4" ht="45" customHeight="1">
+      <c r="A24" s="80"/>
+      <c r="B24" s="88" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="62"/>
+      <c r="D24" s="82"/>
+    </row>
+    <row r="25" spans="1:4" ht="44.25" customHeight="1" thickBot="1">
+      <c r="A25" s="75"/>
+      <c r="B25" s="87" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" s="66"/>
+      <c r="D25" s="70"/>
+    </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="27">
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="D22:D25"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="A14:A15"/>

--- a/iSpring/Usabiluty.xlsx
+++ b/iSpring/Usabiluty.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Presentation Explorer" sheetId="17" r:id="rId1"/>
-    <sheet name="Лист1" sheetId="18" r:id="rId2"/>
+    <sheet name="Usability" sheetId="18" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="181">
   <si>
     <t>Изменение заголовка слайда</t>
   </si>
@@ -454,9 +454,6 @@
     <t>Изменение настройки перехода к слудующему слайду по целчку мыши и автопереход</t>
   </si>
   <si>
-    <t>Нажать на иконку часов(для автоперехода), с синим кружком в котором курсор</t>
-  </si>
-  <si>
     <t>Соответствующие иконки выделяются, выделение чётко видно</t>
   </si>
   <si>
@@ -548,6 +545,24 @@
   </si>
   <si>
     <t>Кнопки сгруппированы. Отдельно стоят кнопки редактирования списков playlist и редактирования списка звуков. Кнопки перемещения звуков в одной группе, удаления и добавления в другой.  Кнопки перемещения вверх расположена над кнопкой перемещения вниз.</t>
+  </si>
+  <si>
+    <t>Нажать на иконку часов(для автоперехода), с синим кружком в котором курсор у слайда в таблице</t>
+  </si>
+  <si>
+    <t>Блкировка слайда</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нажать в центр ячейки в столбце Lock </t>
+  </si>
+  <si>
+    <t>В таблице изначально, если слайд не заблокирован замок не отображается, иконка закмка находится в центре ячейки</t>
+  </si>
+  <si>
+    <t>Можно также выбрать в списке playlist у конкретного слайда</t>
+  </si>
+  <si>
+    <t>Все пункты кроме "Редактирование списка playlist" можно выполнить нажав правой кнопкой мыши, появится список действии, такой же как в ленте</t>
   </si>
 </sst>
 </file>
@@ -877,7 +892,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -892,8 +907,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -908,6 +930,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1110,6 +1135,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1624,7 +1653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="B59" sqref="B59:D59"/>
     </sheetView>
   </sheetViews>
@@ -1637,12 +1666,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1"/>
@@ -1652,1009 +1681,1009 @@
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="59" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" thickBot="1">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="28"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
     </row>
     <row r="6" spans="1:4" ht="90">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="31"/>
+      <c r="D6" s="35"/>
     </row>
     <row r="7" spans="1:4" ht="90">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="38" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="90.75" thickBot="1">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="31"/>
+      <c r="D8" s="35"/>
     </row>
     <row r="9" spans="1:4" ht="45" customHeight="1" thickBot="1">
-      <c r="A9" s="24"/>
-      <c r="B9" s="42" t="s">
+      <c r="A9" s="28"/>
+      <c r="B9" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="32"/>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" thickBot="1">
-      <c r="A10" s="24"/>
-      <c r="B10" s="46" t="s">
+      <c r="A10" s="28"/>
+      <c r="B10" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="26"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="30"/>
     </row>
     <row r="11" spans="1:4" ht="45">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="34"/>
+      <c r="D11" s="38"/>
     </row>
     <row r="12" spans="1:4" ht="45">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="14"/>
     </row>
     <row r="13" spans="1:4" ht="75.75" thickBot="1">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="11"/>
+      <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" thickBot="1">
-      <c r="A14" s="24"/>
-      <c r="B14" s="46" t="s">
+      <c r="A14" s="28"/>
+      <c r="B14" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
     </row>
     <row r="15" spans="1:4" ht="105">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="38" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="45">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="11"/>
+      <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4" ht="90.75" thickBot="1">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="11"/>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" ht="75" customHeight="1" thickBot="1">
-      <c r="A18" s="24"/>
-      <c r="B18" s="42" t="s">
+      <c r="A18" s="28"/>
+      <c r="B18" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="28"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="32"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A19" s="24"/>
-      <c r="B19" s="46" t="s">
+      <c r="A19" s="28"/>
+      <c r="B19" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
     </row>
     <row r="20" spans="1:4" ht="120.75" thickBot="1">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="49" t="s">
+      <c r="D20" s="53" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A21" s="50"/>
-      <c r="B21" s="46" t="s">
+      <c r="A21" s="54"/>
+      <c r="B21" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="51"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="55"/>
     </row>
     <row r="22" spans="1:4" ht="105.75" thickBot="1">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="49" t="s">
+      <c r="D22" s="53" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" thickBot="1">
-      <c r="A23" s="24"/>
-      <c r="B23" s="42" t="s">
+      <c r="A23" s="28"/>
+      <c r="B23" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="28"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="32"/>
     </row>
     <row r="24" spans="1:4" ht="60" customHeight="1" thickBot="1">
-      <c r="A24" s="24"/>
-      <c r="B24" s="46" t="s">
+      <c r="A24" s="28"/>
+      <c r="B24" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="26"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="30"/>
     </row>
     <row r="25" spans="1:4" ht="135">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="36"/>
+      <c r="D25" s="40"/>
     </row>
     <row r="26" spans="1:4" ht="75">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="36"/>
+      <c r="D26" s="40"/>
     </row>
     <row r="27" spans="1:4" ht="45">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="36"/>
+      <c r="D27" s="40"/>
     </row>
     <row r="28" spans="1:4" ht="90">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="36"/>
+      <c r="D28" s="40"/>
     </row>
     <row r="29" spans="1:4" ht="45">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="36"/>
+      <c r="D29" s="40"/>
     </row>
     <row r="30" spans="1:4" ht="90">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="36"/>
+      <c r="D30" s="40"/>
     </row>
     <row r="31" spans="1:4" ht="75">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="31"/>
+      <c r="D31" s="35"/>
     </row>
     <row r="32" spans="1:4" ht="30.75" thickBot="1">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="31"/>
+      <c r="D32" s="35"/>
     </row>
     <row r="33" spans="1:4" ht="60" customHeight="1" thickBot="1">
-      <c r="A33" s="24"/>
-      <c r="B33" s="46" t="s">
+      <c r="A33" s="28"/>
+      <c r="B33" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="30"/>
     </row>
     <row r="34" spans="1:4" ht="90">
-      <c r="A34" s="19"/>
-      <c r="B34" s="35" t="s">
+      <c r="A34" s="23"/>
+      <c r="B34" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="31"/>
+      <c r="D34" s="35"/>
     </row>
     <row r="35" spans="1:4" ht="120.75" thickBot="1">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="31"/>
+      <c r="D35" s="35"/>
     </row>
     <row r="36" spans="1:4" ht="30" customHeight="1" thickBot="1">
-      <c r="A36" s="24"/>
-      <c r="B36" s="42" t="s">
+      <c r="A36" s="28"/>
+      <c r="B36" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="27"/>
-      <c r="D36" s="28"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="32"/>
     </row>
     <row r="37" spans="1:4" ht="120">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D37" s="31"/>
+      <c r="D37" s="35"/>
     </row>
     <row r="38" spans="1:4" ht="120">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D38" s="31"/>
+      <c r="D38" s="35"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="19"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="31"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="35"/>
     </row>
     <row r="40" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A40" s="19"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="31"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="35"/>
     </row>
     <row r="41" spans="1:4" ht="45" customHeight="1" thickBot="1">
-      <c r="A41" s="24"/>
-      <c r="B41" s="42" t="s">
+      <c r="A41" s="28"/>
+      <c r="B41" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="27"/>
-      <c r="D41" s="28"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="32"/>
     </row>
     <row r="42" spans="1:4" ht="105">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="35" t="s">
+      <c r="B42" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="31"/>
+      <c r="D42" s="35"/>
     </row>
     <row r="43" spans="1:4" ht="105">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="32" t="s">
+      <c r="B43" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="33" t="s">
+      <c r="C43" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="D43" s="31"/>
+      <c r="D43" s="35"/>
     </row>
     <row r="44" spans="1:4" ht="30">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B44" s="32" t="s">
+      <c r="B44" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="33" t="s">
+      <c r="C44" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="D44" s="31"/>
+      <c r="D44" s="35"/>
     </row>
     <row r="45" spans="1:4" ht="75">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B45" s="35" t="s">
+      <c r="B45" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D45" s="36"/>
+      <c r="D45" s="40"/>
     </row>
     <row r="46" spans="1:4" ht="45.75" thickBot="1">
-      <c r="A46" s="20"/>
-      <c r="B46" s="35" t="s">
+      <c r="A46" s="24"/>
+      <c r="B46" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D46" s="11"/>
+      <c r="D46" s="14"/>
     </row>
     <row r="47" spans="1:4" ht="30" customHeight="1" thickBot="1">
-      <c r="A47" s="24"/>
-      <c r="B47" s="42" t="s">
+      <c r="A47" s="28"/>
+      <c r="B47" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="27"/>
-      <c r="D47" s="28"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="32"/>
     </row>
     <row r="48" spans="1:4" ht="60">
-      <c r="A48" s="19" t="s">
+      <c r="A48" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="B48" s="35" t="s">
+      <c r="B48" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D48" s="11"/>
+      <c r="D48" s="14"/>
     </row>
     <row r="49" spans="1:4" ht="90">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="33" t="s">
+      <c r="C49" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="D49" s="11"/>
+      <c r="D49" s="14"/>
     </row>
     <row r="50" spans="1:4" ht="30">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B50" s="32" t="s">
+      <c r="B50" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C50" s="33" t="s">
+      <c r="C50" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="D50" s="11"/>
+      <c r="D50" s="14"/>
     </row>
     <row r="51" spans="1:4" ht="60">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="B51" s="35" t="s">
+      <c r="B51" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D51" s="11"/>
+      <c r="D51" s="14"/>
     </row>
     <row r="52" spans="1:4" ht="45.75" thickBot="1">
-      <c r="A52" s="20"/>
-      <c r="B52" s="35" t="s">
+      <c r="A52" s="24"/>
+      <c r="B52" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D52" s="11"/>
+      <c r="D52" s="14"/>
     </row>
     <row r="53" spans="1:4" ht="30" customHeight="1" thickBot="1">
-      <c r="A53" s="24"/>
-      <c r="B53" s="42" t="s">
+      <c r="A53" s="28"/>
+      <c r="B53" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="47"/>
-      <c r="D53" s="48"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="52"/>
     </row>
     <row r="54" spans="1:4" ht="75">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B54" s="35" t="s">
+      <c r="B54" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D54" s="11"/>
+      <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="45">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="B55" s="32" t="s">
+      <c r="B55" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="C55" s="33" t="s">
+      <c r="C55" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="D55" s="11"/>
+      <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="30">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="32" t="s">
+      <c r="B56" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C56" s="33" t="s">
+      <c r="C56" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="D56" s="37"/>
+      <c r="D56" s="41"/>
     </row>
     <row r="57" spans="1:4" ht="60">
-      <c r="A57" s="19" t="s">
+      <c r="A57" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="B57" s="35" t="s">
+      <c r="B57" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D57" s="11"/>
+      <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:4" ht="45.75" thickBot="1">
-      <c r="A58" s="20"/>
-      <c r="B58" s="35" t="s">
+      <c r="A58" s="24"/>
+      <c r="B58" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D58" s="11"/>
+      <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A59" s="24"/>
-      <c r="B59" s="42" t="s">
+      <c r="A59" s="28"/>
+      <c r="B59" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="27"/>
-      <c r="D59" s="28"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="32"/>
     </row>
     <row r="60" spans="1:4" ht="90">
-      <c r="A60" s="19" t="s">
+      <c r="A60" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B60" s="38" t="s">
+      <c r="B60" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="C60" s="39" t="s">
+      <c r="C60" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="D60" s="11"/>
+      <c r="D60" s="14"/>
     </row>
     <row r="61" spans="1:4" ht="60.75" thickBot="1">
-      <c r="A61" s="20"/>
-      <c r="B61" s="40" t="s">
+      <c r="A61" s="24"/>
+      <c r="B61" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="C61" s="41" t="s">
+      <c r="C61" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="D61" s="18"/>
+      <c r="D61" s="22"/>
     </row>
     <row r="62" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A62" s="24"/>
-      <c r="B62" s="42" t="s">
+      <c r="A62" s="28"/>
+      <c r="B62" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C62" s="27"/>
-      <c r="D62" s="28"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="32"/>
     </row>
     <row r="63" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A63" s="21"/>
-      <c r="B63" s="43" t="s">
+      <c r="A63" s="25"/>
+      <c r="B63" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="C63" s="44"/>
-      <c r="D63" s="45"/>
+      <c r="C63" s="48"/>
+      <c r="D63" s="49"/>
     </row>
     <row r="64" spans="1:4" ht="90">
-      <c r="A64" s="19" t="s">
+      <c r="A64" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C64" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D64" s="11"/>
+      <c r="D64" s="14"/>
     </row>
     <row r="65" spans="1:4" ht="45">
-      <c r="A65" s="19" t="s">
+      <c r="A65" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="11"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="14"/>
     </row>
     <row r="66" spans="1:4" ht="60">
-      <c r="A66" s="19" t="s">
+      <c r="A66" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C66" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D66" s="11"/>
+      <c r="D66" s="14"/>
     </row>
     <row r="67" spans="1:4" ht="30.75" thickBot="1">
-      <c r="A67" s="19" t="s">
+      <c r="A67" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C67" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="D67" s="11"/>
+      <c r="D67" s="14"/>
     </row>
     <row r="68" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A68" s="24"/>
-      <c r="B68" s="46" t="s">
+      <c r="A68" s="28"/>
+      <c r="B68" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="C68" s="25"/>
-      <c r="D68" s="26"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="30"/>
     </row>
     <row r="69" spans="1:4" ht="60">
-      <c r="A69" s="19" t="s">
+      <c r="A69" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C69" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D69" s="11"/>
+      <c r="D69" s="14"/>
     </row>
     <row r="70" spans="1:4" ht="30">
-      <c r="A70" s="19" t="s">
+      <c r="A70" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="11"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="14"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="19" t="s">
+      <c r="A71" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C71" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D71" s="11"/>
+      <c r="D71" s="14"/>
     </row>
     <row r="72" spans="1:4" ht="30.75" thickBot="1">
-      <c r="A72" s="19" t="s">
+      <c r="A72" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C72" s="12" t="s">
+      <c r="C72" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="D72" s="11"/>
+      <c r="D72" s="14"/>
     </row>
     <row r="73" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A73" s="24"/>
-      <c r="B73" s="46" t="s">
+      <c r="A73" s="28"/>
+      <c r="B73" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="C73" s="25"/>
-      <c r="D73" s="26"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="30"/>
     </row>
     <row r="74" spans="1:4" ht="90">
-      <c r="A74" s="19" t="s">
+      <c r="A74" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C74" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="D74" s="11"/>
+      <c r="D74" s="14"/>
     </row>
     <row r="75" spans="1:4" ht="45">
-      <c r="A75" s="19" t="s">
+      <c r="A75" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="11"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="14"/>
     </row>
     <row r="76" spans="1:4" ht="30">
-      <c r="A76" s="19" t="s">
+      <c r="A76" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C76" s="12" t="s">
+      <c r="C76" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="D76" s="11"/>
+      <c r="D76" s="14"/>
     </row>
     <row r="77" spans="1:4" ht="30.75" thickBot="1">
-      <c r="A77" s="19" t="s">
+      <c r="A77" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="C77" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D77" s="11"/>
+      <c r="D77" s="14"/>
     </row>
     <row r="78" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A78" s="24"/>
-      <c r="B78" s="46" t="s">
+      <c r="A78" s="28"/>
+      <c r="B78" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="C78" s="25"/>
-      <c r="D78" s="26"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="30"/>
     </row>
     <row r="79" spans="1:4" ht="30" customHeight="1">
-      <c r="A79" s="19" t="s">
+      <c r="A79" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C79" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="D79" s="11"/>
+      <c r="D79" s="14"/>
     </row>
     <row r="80" spans="1:4" ht="30">
-      <c r="A80" s="19" t="s">
+      <c r="A80" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C80" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="D80" s="11"/>
+      <c r="D80" s="14"/>
     </row>
     <row r="81" spans="1:4" ht="45.75" thickBot="1">
-      <c r="A81" s="19"/>
-      <c r="B81" s="9" t="s">
+      <c r="A81" s="23"/>
+      <c r="B81" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C81" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D81" s="11"/>
+      <c r="D81" s="14"/>
     </row>
     <row r="82" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A82" s="24"/>
-      <c r="B82" s="46" t="s">
+      <c r="A82" s="28"/>
+      <c r="B82" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="C82" s="25"/>
-      <c r="D82" s="26"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="30"/>
     </row>
     <row r="83" spans="1:4" ht="60.75" thickBot="1">
-      <c r="A83" s="19" t="s">
+      <c r="A83" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C83" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="D83" s="11"/>
+      <c r="D83" s="14"/>
     </row>
     <row r="84" spans="1:4" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A84" s="24"/>
-      <c r="B84" s="46" t="s">
+      <c r="A84" s="28"/>
+      <c r="B84" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="C84" s="25"/>
-      <c r="D84" s="26"/>
+      <c r="C84" s="29"/>
+      <c r="D84" s="30"/>
     </row>
     <row r="85" spans="1:4" ht="30" customHeight="1">
-      <c r="A85" s="19" t="s">
+      <c r="A85" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="11"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="14"/>
     </row>
     <row r="86" spans="1:4" ht="45">
-      <c r="A86" s="19" t="s">
+      <c r="A86" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C86" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="D86" s="11"/>
+      <c r="D86" s="14"/>
     </row>
     <row r="87" spans="1:4" ht="45.75" thickBot="1">
-      <c r="A87" s="19" t="s">
+      <c r="A87" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C87" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="D87" s="11"/>
+      <c r="D87" s="14"/>
     </row>
     <row r="88" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A88" s="24"/>
-      <c r="B88" s="46" t="s">
+      <c r="A88" s="28"/>
+      <c r="B88" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="C88" s="25"/>
-      <c r="D88" s="26"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="30"/>
     </row>
     <row r="89" spans="1:4" ht="30" customHeight="1" thickBot="1">
-      <c r="A89" s="19" t="s">
+      <c r="A89" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B89" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C89" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="D89" s="11"/>
+      <c r="D89" s="14"/>
     </row>
     <row r="90" spans="1:4" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A90" s="24"/>
-      <c r="B90" s="46" t="s">
+      <c r="A90" s="28"/>
+      <c r="B90" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="C90" s="25"/>
-      <c r="D90" s="26"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="30"/>
     </row>
     <row r="91" spans="1:4" ht="45" customHeight="1">
-      <c r="A91" s="22" t="s">
+      <c r="A91" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="B91" s="14" t="s">
+      <c r="B91" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="C91" s="15" t="s">
+      <c r="C91" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="D91" s="11"/>
+      <c r="D91" s="14"/>
     </row>
     <row r="92" spans="1:4" ht="60.75" thickBot="1">
-      <c r="A92" s="22" t="s">
+      <c r="A92" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="B92" s="14" t="s">
+      <c r="B92" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="C92" s="15" t="s">
+      <c r="C92" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="D92" s="11"/>
+      <c r="D92" s="14"/>
     </row>
     <row r="93" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A93" s="24"/>
-      <c r="B93" s="46" t="s">
+      <c r="A93" s="28"/>
+      <c r="B93" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="C93" s="25"/>
-      <c r="D93" s="26"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="30"/>
     </row>
     <row r="94" spans="1:4" ht="30" customHeight="1" thickBot="1">
-      <c r="A94" s="19" t="s">
+      <c r="A94" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="B94" s="9" t="s">
+      <c r="B94" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="C94" s="10" t="s">
+      <c r="C94" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="D94" s="11"/>
+      <c r="D94" s="14"/>
     </row>
     <row r="95" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A95" s="24"/>
-      <c r="B95" s="46" t="s">
+      <c r="A95" s="28"/>
+      <c r="B95" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="C95" s="25"/>
-      <c r="D95" s="26"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="30"/>
     </row>
     <row r="96" spans="1:4" ht="60">
-      <c r="A96" s="19" t="s">
+      <c r="A96" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="B96" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C96" s="10" t="s">
+      <c r="C96" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="D96" s="11"/>
+      <c r="D96" s="14"/>
     </row>
     <row r="97" spans="1:4" ht="45">
-      <c r="A97" s="19" t="s">
+      <c r="A97" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="C97" s="10" t="s">
+      <c r="C97" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="D97" s="11"/>
+      <c r="D97" s="14"/>
     </row>
     <row r="98" spans="1:4" ht="30.75" thickBot="1">
-      <c r="A98" s="23" t="s">
+      <c r="A98" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="B98" s="16" t="s">
+      <c r="B98" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C98" s="17" t="s">
+      <c r="C98" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D98" s="18"/>
+      <c r="D98" s="22"/>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="5"/>
@@ -2707,7 +2736,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E25"/>
+  <dimension ref="A2:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
@@ -2719,268 +2748,335 @@
     <col min="2" max="2" width="34.28515625" customWidth="1"/>
     <col min="3" max="3" width="36.7109375" customWidth="1"/>
     <col min="4" max="4" width="37.5703125" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" customWidth="1"/>
+    <col min="5" max="5" width="41" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="60" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="75" t="s">
         <v>142</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="72" t="s">
         <v>142</v>
       </c>
+      <c r="E4" s="94"/>
     </row>
     <row r="5" spans="1:5" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A5" s="64"/>
-      <c r="B5" s="65" t="s">
+      <c r="A5" s="68"/>
+      <c r="B5" s="69" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="70"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" spans="1:5" ht="45" customHeight="1">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="78" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="65" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="72" t="s">
         <v>141</v>
       </c>
+      <c r="E6" s="17"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A7" s="75"/>
-      <c r="B7" s="65" t="s">
+      <c r="A7" s="79"/>
+      <c r="B7" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="17"/>
     </row>
     <row r="8" spans="1:5" ht="48.75" customHeight="1" thickBot="1">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="80" t="s">
         <v>143</v>
       </c>
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="81" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="82" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="D8" s="83" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" ht="30" customHeight="1">
+      <c r="A9" s="77" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="79" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1">
-      <c r="A9" s="73" t="s">
+      <c r="B9" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="B9" s="83" t="s">
+      <c r="C9" s="65" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" ht="30">
+      <c r="A10" s="84"/>
+      <c r="B10" s="88" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C10" s="66"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A11" s="79"/>
+      <c r="B11" s="89" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="70"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:5" ht="30">
+      <c r="A12" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" s="90" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" s="72" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A13" s="79"/>
+      <c r="B13" s="91" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="70"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" ht="30">
+      <c r="A14" s="77" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" s="65" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A15" s="79"/>
+      <c r="B15" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="70"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" ht="30">
+      <c r="A16" s="77" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16" s="90" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" s="72" t="s">
+        <v>160</v>
+      </c>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A17" s="79"/>
+      <c r="B17" s="91" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="70"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="90" t="s">
         <v>162</v>
       </c>
-      <c r="D9" s="67" t="s">
+      <c r="C18" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18" s="72" t="s">
+        <v>164</v>
+      </c>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" ht="51.75" customHeight="1" thickBot="1">
+      <c r="A19" s="79"/>
+      <c r="B19" s="91" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" s="70"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" ht="30">
+      <c r="A20" s="67" t="s">
+        <v>165</v>
+      </c>
+      <c r="B20" s="90" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>168</v>
+      </c>
+      <c r="D20" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30.75" thickBot="1">
+      <c r="A21" s="68"/>
+      <c r="B21" s="91" t="s">
+        <v>167</v>
+      </c>
+      <c r="C21" s="70"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1">
+      <c r="A22" s="77" t="s">
+        <v>169</v>
+      </c>
+      <c r="B22" s="90" t="s">
+        <v>170</v>
+      </c>
+      <c r="C22" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="D22" s="72" t="s">
+        <v>174</v>
+      </c>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" ht="36.75" customHeight="1">
+      <c r="A23" s="84"/>
+      <c r="B23" s="92" t="s">
+        <v>171</v>
+      </c>
+      <c r="C23" s="66"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" ht="45" customHeight="1">
+      <c r="A24" s="84"/>
+      <c r="B24" s="92" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" s="66"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" ht="44.25" customHeight="1" thickBot="1">
+      <c r="A25" s="79"/>
+      <c r="B25" s="91" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" s="70"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:5" ht="30.75" customHeight="1">
+      <c r="A26" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B26" s="90" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="30">
-      <c r="A10" s="80"/>
-      <c r="B10" s="84" t="s">
-        <v>148</v>
-      </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="81"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A11" s="75"/>
-      <c r="B11" s="85" t="s">
-        <v>149</v>
-      </c>
-      <c r="C11" s="66"/>
-      <c r="D11" s="69"/>
-    </row>
-    <row r="12" spans="1:5" ht="30">
-      <c r="A12" s="73" t="s">
-        <v>150</v>
-      </c>
-      <c r="B12" s="86" t="s">
-        <v>151</v>
-      </c>
-      <c r="C12" s="61" t="s">
-        <v>153</v>
-      </c>
-      <c r="D12" s="68" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A13" s="75"/>
-      <c r="B13" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="C13" s="66"/>
-      <c r="D13" s="70"/>
-    </row>
-    <row r="14" spans="1:5" ht="30">
-      <c r="A14" s="73" t="s">
-        <v>154</v>
-      </c>
-      <c r="B14" s="86" t="s">
-        <v>155</v>
-      </c>
-      <c r="C14" s="61" t="s">
-        <v>157</v>
-      </c>
-      <c r="D14" s="68" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A15" s="75"/>
-      <c r="B15" s="87" t="s">
-        <v>156</v>
-      </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="70"/>
-    </row>
-    <row r="16" spans="1:5" ht="30">
-      <c r="A16" s="73" t="s">
-        <v>158</v>
-      </c>
-      <c r="B16" s="86" t="s">
-        <v>159</v>
-      </c>
-      <c r="C16" s="61" t="s">
-        <v>161</v>
-      </c>
-      <c r="D16" s="68" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A17" s="75"/>
-      <c r="B17" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="C17" s="66"/>
-      <c r="D17" s="70"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="86" t="s">
-        <v>163</v>
-      </c>
-      <c r="C18" s="61" t="s">
-        <v>165</v>
-      </c>
-      <c r="D18" s="68" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A19" s="75"/>
-      <c r="B19" s="87" t="s">
-        <v>164</v>
-      </c>
-      <c r="C19" s="66"/>
-      <c r="D19" s="70"/>
-    </row>
-    <row r="20" spans="1:4" ht="30">
-      <c r="A20" s="63" t="s">
-        <v>166</v>
-      </c>
-      <c r="B20" s="86" t="s">
-        <v>167</v>
-      </c>
-      <c r="C20" s="61" t="s">
-        <v>169</v>
-      </c>
-      <c r="D20" s="68" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="30.75" thickBot="1">
-      <c r="A21" s="64"/>
-      <c r="B21" s="87" t="s">
-        <v>168</v>
-      </c>
-      <c r="C21" s="66"/>
-      <c r="D21" s="70"/>
-    </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1">
-      <c r="A22" s="73" t="s">
-        <v>170</v>
-      </c>
-      <c r="B22" s="86" t="s">
-        <v>171</v>
-      </c>
-      <c r="C22" s="61" t="s">
-        <v>175</v>
-      </c>
-      <c r="D22" s="68" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="36.75" customHeight="1">
-      <c r="A23" s="80"/>
-      <c r="B23" s="88" t="s">
-        <v>172</v>
-      </c>
-      <c r="C23" s="62"/>
-      <c r="D23" s="82"/>
-    </row>
-    <row r="24" spans="1:4" ht="45" customHeight="1">
-      <c r="A24" s="80"/>
-      <c r="B24" s="88" t="s">
-        <v>173</v>
-      </c>
-      <c r="C24" s="62"/>
-      <c r="D24" s="82"/>
-    </row>
-    <row r="25" spans="1:4" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A25" s="75"/>
-      <c r="B25" s="87" t="s">
-        <v>174</v>
-      </c>
-      <c r="C25" s="66"/>
-      <c r="D25" s="70"/>
+      <c r="C26" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="D26" s="72" t="s">
+        <v>178</v>
+      </c>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="1:5" ht="46.5" customHeight="1" thickBot="1">
+      <c r="A27" s="93"/>
+      <c r="B27" s="91" t="s">
+        <v>177</v>
+      </c>
+      <c r="C27" s="70"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="E28" s="9"/>
+    </row>
+    <row r="30" spans="1:5" ht="75" customHeight="1">
+      <c r="A30" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="9"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="32">
+    <mergeCell ref="A30:A32"/>
     <mergeCell ref="C22:C25"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="D22:D25"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E28"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="A18:A19"/>

--- a/iSpring/Usabiluty.xlsx
+++ b/iSpring/Usabiluty.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2670" tabRatio="748" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2670" tabRatio="748"/>
   </bookViews>
   <sheets>
     <sheet name="Presentation Explorer" sheetId="17" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="184">
   <si>
     <t>Изменение заголовка слайда</t>
   </si>
@@ -563,6 +563,15 @@
   </si>
   <si>
     <t>Все пункты кроме "Редактирование списка playlist" можно выполнить нажав правой кнопкой мыши, появится список действии, такой же как в ленте</t>
+  </si>
+  <si>
+    <t>Группировка слайдов</t>
+  </si>
+  <si>
+    <t>Нажать на стрелку вправо или влево</t>
+  </si>
+  <si>
+    <t>Выделенные слайды соединяются линиями со слайдом "родителем", образовавшюся группу можно свернуть</t>
   </si>
 </sst>
 </file>
@@ -892,7 +901,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -915,7 +924,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1136,7 +1144,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1653,7 +1660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B59" sqref="B59:D59"/>
     </sheetView>
   </sheetViews>
@@ -1681,1009 +1688,1009 @@
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="58" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" thickBot="1">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="31"/>
     </row>
     <row r="6" spans="1:4" ht="90">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="35"/>
+      <c r="D6" s="34"/>
     </row>
     <row r="7" spans="1:4" ht="90">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="37" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="90.75" thickBot="1">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="35"/>
+      <c r="D8" s="34"/>
     </row>
     <row r="9" spans="1:4" ht="45" customHeight="1" thickBot="1">
-      <c r="A9" s="28"/>
-      <c r="B9" s="46" t="s">
+      <c r="A9" s="27"/>
+      <c r="B9" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" thickBot="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="50" t="s">
+      <c r="A10" s="27"/>
+      <c r="B10" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="29"/>
     </row>
     <row r="11" spans="1:4" ht="45">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="38"/>
+      <c r="D11" s="37"/>
     </row>
     <row r="12" spans="1:4" ht="45">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="14"/>
+      <c r="D12" s="13"/>
     </row>
     <row r="13" spans="1:4" ht="75.75" thickBot="1">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="14"/>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" thickBot="1">
-      <c r="A14" s="28"/>
-      <c r="B14" s="50" t="s">
+      <c r="A14" s="27"/>
+      <c r="B14" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="29"/>
     </row>
     <row r="15" spans="1:4" ht="105">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="37" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="45">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="14"/>
+      <c r="D16" s="13"/>
     </row>
     <row r="17" spans="1:4" ht="90.75" thickBot="1">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="14"/>
+      <c r="D17" s="13"/>
     </row>
     <row r="18" spans="1:4" ht="75" customHeight="1" thickBot="1">
-      <c r="A18" s="28"/>
-      <c r="B18" s="46" t="s">
+      <c r="A18" s="27"/>
+      <c r="B18" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="32"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="31"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A19" s="28"/>
-      <c r="B19" s="50" t="s">
+      <c r="A19" s="27"/>
+      <c r="B19" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="29"/>
     </row>
     <row r="20" spans="1:4" ht="120.75" thickBot="1">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="53" t="s">
+      <c r="D20" s="52" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A21" s="54"/>
-      <c r="B21" s="50" t="s">
+      <c r="A21" s="53"/>
+      <c r="B21" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="55"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="54"/>
     </row>
     <row r="22" spans="1:4" ht="105.75" thickBot="1">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="53" t="s">
+      <c r="D22" s="52" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" thickBot="1">
-      <c r="A23" s="28"/>
-      <c r="B23" s="46" t="s">
+      <c r="A23" s="27"/>
+      <c r="B23" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="32"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="31"/>
     </row>
     <row r="24" spans="1:4" ht="60" customHeight="1" thickBot="1">
-      <c r="A24" s="28"/>
-      <c r="B24" s="50" t="s">
+      <c r="A24" s="27"/>
+      <c r="B24" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="30"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="29"/>
     </row>
     <row r="25" spans="1:4" ht="135">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="40"/>
+      <c r="D25" s="39"/>
     </row>
     <row r="26" spans="1:4" ht="75">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="40"/>
+      <c r="D26" s="39"/>
     </row>
     <row r="27" spans="1:4" ht="45">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="40"/>
+      <c r="D27" s="39"/>
     </row>
     <row r="28" spans="1:4" ht="90">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="40"/>
+      <c r="D28" s="39"/>
     </row>
     <row r="29" spans="1:4" ht="45">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="40"/>
+      <c r="D29" s="39"/>
     </row>
     <row r="30" spans="1:4" ht="90">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="40"/>
+      <c r="D30" s="39"/>
     </row>
     <row r="31" spans="1:4" ht="75">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="35"/>
+      <c r="D31" s="34"/>
     </row>
     <row r="32" spans="1:4" ht="30.75" thickBot="1">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="37" t="s">
+      <c r="C32" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="35"/>
+      <c r="D32" s="34"/>
     </row>
     <row r="33" spans="1:4" ht="60" customHeight="1" thickBot="1">
-      <c r="A33" s="28"/>
-      <c r="B33" s="50" t="s">
+      <c r="A33" s="27"/>
+      <c r="B33" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="30"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="29"/>
     </row>
     <row r="34" spans="1:4" ht="90">
-      <c r="A34" s="23"/>
-      <c r="B34" s="39" t="s">
+      <c r="A34" s="22"/>
+      <c r="B34" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="35"/>
+      <c r="D34" s="34"/>
     </row>
     <row r="35" spans="1:4" ht="120.75" thickBot="1">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="35"/>
+      <c r="D35" s="34"/>
     </row>
     <row r="36" spans="1:4" ht="30" customHeight="1" thickBot="1">
-      <c r="A36" s="28"/>
-      <c r="B36" s="46" t="s">
+      <c r="A36" s="27"/>
+      <c r="B36" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="32"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="31"/>
     </row>
     <row r="37" spans="1:4" ht="120">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="39" t="s">
+      <c r="B37" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D37" s="35"/>
+      <c r="D37" s="34"/>
     </row>
     <row r="38" spans="1:4" ht="120">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="39" t="s">
+      <c r="B38" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D38" s="35"/>
+      <c r="D38" s="34"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="23"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="35"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="34"/>
     </row>
     <row r="40" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A40" s="23"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="35"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="34"/>
     </row>
     <row r="41" spans="1:4" ht="45" customHeight="1" thickBot="1">
-      <c r="A41" s="28"/>
-      <c r="B41" s="46" t="s">
+      <c r="A41" s="27"/>
+      <c r="B41" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="31"/>
-      <c r="D41" s="32"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="31"/>
     </row>
     <row r="42" spans="1:4" ht="105">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="39" t="s">
+      <c r="B42" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="35"/>
+      <c r="D42" s="34"/>
     </row>
     <row r="43" spans="1:4" ht="105">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="37" t="s">
+      <c r="C43" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="D43" s="35"/>
+      <c r="D43" s="34"/>
     </row>
     <row r="44" spans="1:4" ht="30">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B44" s="36" t="s">
+      <c r="B44" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="37" t="s">
+      <c r="C44" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="D44" s="35"/>
+      <c r="D44" s="34"/>
     </row>
     <row r="45" spans="1:4" ht="75">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="B45" s="39" t="s">
+      <c r="B45" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D45" s="40"/>
+      <c r="D45" s="39"/>
     </row>
     <row r="46" spans="1:4" ht="45.75" thickBot="1">
-      <c r="A46" s="24"/>
-      <c r="B46" s="39" t="s">
+      <c r="A46" s="23"/>
+      <c r="B46" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D46" s="14"/>
+      <c r="D46" s="13"/>
     </row>
     <row r="47" spans="1:4" ht="30" customHeight="1" thickBot="1">
-      <c r="A47" s="28"/>
-      <c r="B47" s="46" t="s">
+      <c r="A47" s="27"/>
+      <c r="B47" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="31"/>
-      <c r="D47" s="32"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="31"/>
     </row>
     <row r="48" spans="1:4" ht="60">
-      <c r="A48" s="23" t="s">
+      <c r="A48" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B48" s="39" t="s">
+      <c r="B48" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D48" s="14"/>
+      <c r="D48" s="13"/>
     </row>
     <row r="49" spans="1:4" ht="90">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B49" s="36" t="s">
+      <c r="B49" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="37" t="s">
+      <c r="C49" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D49" s="14"/>
+      <c r="D49" s="13"/>
     </row>
     <row r="50" spans="1:4" ht="30">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B50" s="36" t="s">
+      <c r="B50" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="C50" s="37" t="s">
+      <c r="C50" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="D50" s="14"/>
+      <c r="D50" s="13"/>
     </row>
     <row r="51" spans="1:4" ht="60">
-      <c r="A51" s="23" t="s">
+      <c r="A51" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B51" s="39" t="s">
+      <c r="B51" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D51" s="14"/>
+      <c r="D51" s="13"/>
     </row>
     <row r="52" spans="1:4" ht="45.75" thickBot="1">
-      <c r="A52" s="24"/>
-      <c r="B52" s="39" t="s">
+      <c r="A52" s="23"/>
+      <c r="B52" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D52" s="14"/>
+      <c r="D52" s="13"/>
     </row>
     <row r="53" spans="1:4" ht="30" customHeight="1" thickBot="1">
-      <c r="A53" s="28"/>
-      <c r="B53" s="46" t="s">
+      <c r="A53" s="27"/>
+      <c r="B53" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="51"/>
-      <c r="D53" s="52"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="51"/>
     </row>
     <row r="54" spans="1:4" ht="75">
-      <c r="A54" s="23" t="s">
+      <c r="A54" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B54" s="39" t="s">
+      <c r="B54" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D54" s="14"/>
+      <c r="D54" s="13"/>
     </row>
     <row r="55" spans="1:4" ht="45">
-      <c r="A55" s="23" t="s">
+      <c r="A55" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B55" s="36" t="s">
+      <c r="B55" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="C55" s="37" t="s">
+      <c r="C55" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="D55" s="14"/>
+      <c r="D55" s="13"/>
     </row>
     <row r="56" spans="1:4" ht="30">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="36" t="s">
+      <c r="B56" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="C56" s="37" t="s">
+      <c r="C56" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="D56" s="41"/>
+      <c r="D56" s="40"/>
     </row>
     <row r="57" spans="1:4" ht="60">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="B57" s="39" t="s">
+      <c r="B57" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C57" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D57" s="14"/>
+      <c r="D57" s="13"/>
     </row>
     <row r="58" spans="1:4" ht="45.75" thickBot="1">
-      <c r="A58" s="24"/>
-      <c r="B58" s="39" t="s">
+      <c r="A58" s="23"/>
+      <c r="B58" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D58" s="14"/>
+      <c r="D58" s="13"/>
     </row>
     <row r="59" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A59" s="28"/>
-      <c r="B59" s="46" t="s">
+      <c r="A59" s="27"/>
+      <c r="B59" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="31"/>
-      <c r="D59" s="32"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="31"/>
     </row>
     <row r="60" spans="1:4" ht="90">
-      <c r="A60" s="23" t="s">
+      <c r="A60" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="B60" s="42" t="s">
+      <c r="B60" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="C60" s="43" t="s">
+      <c r="C60" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="D60" s="14"/>
+      <c r="D60" s="13"/>
     </row>
     <row r="61" spans="1:4" ht="60.75" thickBot="1">
-      <c r="A61" s="24"/>
-      <c r="B61" s="44" t="s">
+      <c r="A61" s="23"/>
+      <c r="B61" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="C61" s="45" t="s">
+      <c r="C61" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="D61" s="22"/>
+      <c r="D61" s="21"/>
     </row>
     <row r="62" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A62" s="28"/>
-      <c r="B62" s="46" t="s">
+      <c r="A62" s="27"/>
+      <c r="B62" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C62" s="31"/>
-      <c r="D62" s="32"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="31"/>
     </row>
     <row r="63" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A63" s="25"/>
-      <c r="B63" s="47" t="s">
+      <c r="A63" s="24"/>
+      <c r="B63" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C63" s="48"/>
-      <c r="D63" s="49"/>
+      <c r="C63" s="47"/>
+      <c r="D63" s="48"/>
     </row>
     <row r="64" spans="1:4" ht="90">
-      <c r="A64" s="23" t="s">
+      <c r="A64" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C64" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D64" s="14"/>
+      <c r="D64" s="13"/>
     </row>
     <row r="65" spans="1:4" ht="45">
-      <c r="A65" s="23" t="s">
+      <c r="A65" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="14"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="13"/>
     </row>
     <row r="66" spans="1:4" ht="60">
-      <c r="A66" s="23" t="s">
+      <c r="A66" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C66" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D66" s="14"/>
+      <c r="D66" s="13"/>
     </row>
     <row r="67" spans="1:4" ht="30.75" thickBot="1">
-      <c r="A67" s="23" t="s">
+      <c r="A67" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C67" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="D67" s="14"/>
+      <c r="D67" s="13"/>
     </row>
     <row r="68" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A68" s="28"/>
-      <c r="B68" s="50" t="s">
+      <c r="A68" s="27"/>
+      <c r="B68" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="C68" s="29"/>
-      <c r="D68" s="30"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="29"/>
     </row>
     <row r="69" spans="1:4" ht="60">
-      <c r="A69" s="23" t="s">
+      <c r="A69" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="B69" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C69" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D69" s="14"/>
+      <c r="D69" s="13"/>
     </row>
     <row r="70" spans="1:4" ht="30">
-      <c r="A70" s="23" t="s">
+      <c r="A70" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="14"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="13"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="23" t="s">
+      <c r="A71" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C71" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="D71" s="14"/>
+      <c r="D71" s="13"/>
     </row>
     <row r="72" spans="1:4" ht="30.75" thickBot="1">
-      <c r="A72" s="23" t="s">
+      <c r="A72" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="B72" s="12" t="s">
+      <c r="B72" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C72" s="15" t="s">
+      <c r="C72" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="D72" s="14"/>
+      <c r="D72" s="13"/>
     </row>
     <row r="73" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A73" s="28"/>
-      <c r="B73" s="50" t="s">
+      <c r="A73" s="27"/>
+      <c r="B73" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="C73" s="29"/>
-      <c r="D73" s="30"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="29"/>
     </row>
     <row r="74" spans="1:4" ht="90">
-      <c r="A74" s="23" t="s">
+      <c r="A74" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="B74" s="12" t="s">
+      <c r="B74" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C74" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D74" s="14"/>
+      <c r="D74" s="13"/>
     </row>
     <row r="75" spans="1:4" ht="45">
-      <c r="A75" s="23" t="s">
+      <c r="A75" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="14"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="13"/>
     </row>
     <row r="76" spans="1:4" ht="30">
-      <c r="A76" s="23" t="s">
+      <c r="A76" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="B76" s="12" t="s">
+      <c r="B76" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C76" s="15" t="s">
+      <c r="C76" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="D76" s="14"/>
+      <c r="D76" s="13"/>
     </row>
     <row r="77" spans="1:4" ht="30.75" thickBot="1">
-      <c r="A77" s="23" t="s">
+      <c r="A77" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="B77" s="12" t="s">
+      <c r="B77" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C77" s="15" t="s">
+      <c r="C77" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D77" s="14"/>
+      <c r="D77" s="13"/>
     </row>
     <row r="78" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A78" s="28"/>
-      <c r="B78" s="50" t="s">
+      <c r="A78" s="27"/>
+      <c r="B78" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="C78" s="29"/>
-      <c r="D78" s="30"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="29"/>
     </row>
     <row r="79" spans="1:4" ht="30" customHeight="1">
-      <c r="A79" s="23" t="s">
+      <c r="A79" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="B79" s="12" t="s">
+      <c r="B79" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C79" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D79" s="14"/>
+      <c r="D79" s="13"/>
     </row>
     <row r="80" spans="1:4" ht="30">
-      <c r="A80" s="23" t="s">
+      <c r="A80" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="B80" s="12" t="s">
+      <c r="B80" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="C80" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D80" s="14"/>
+      <c r="D80" s="13"/>
     </row>
     <row r="81" spans="1:4" ht="45.75" thickBot="1">
-      <c r="A81" s="23"/>
-      <c r="B81" s="12" t="s">
+      <c r="A81" s="22"/>
+      <c r="B81" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C81" s="13" t="s">
+      <c r="C81" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="D81" s="14"/>
+      <c r="D81" s="13"/>
     </row>
     <row r="82" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A82" s="28"/>
-      <c r="B82" s="50" t="s">
+      <c r="A82" s="27"/>
+      <c r="B82" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="C82" s="29"/>
-      <c r="D82" s="30"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="29"/>
     </row>
     <row r="83" spans="1:4" ht="60.75" thickBot="1">
-      <c r="A83" s="23" t="s">
+      <c r="A83" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="B83" s="12" t="s">
+      <c r="B83" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="C83" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="D83" s="14"/>
+      <c r="D83" s="13"/>
     </row>
     <row r="84" spans="1:4" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A84" s="28"/>
-      <c r="B84" s="50" t="s">
+      <c r="A84" s="27"/>
+      <c r="B84" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="C84" s="29"/>
-      <c r="D84" s="30"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="29"/>
     </row>
     <row r="85" spans="1:4" ht="30" customHeight="1">
-      <c r="A85" s="23" t="s">
+      <c r="A85" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="B85" s="13"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="14"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="13"/>
     </row>
     <row r="86" spans="1:4" ht="45">
-      <c r="A86" s="23" t="s">
+      <c r="A86" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="B86" s="12" t="s">
+      <c r="B86" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C86" s="13" t="s">
+      <c r="C86" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D86" s="14"/>
+      <c r="D86" s="13"/>
     </row>
     <row r="87" spans="1:4" ht="45.75" thickBot="1">
-      <c r="A87" s="23" t="s">
+      <c r="A87" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="B87" s="12" t="s">
+      <c r="B87" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C87" s="13" t="s">
+      <c r="C87" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="D87" s="14"/>
+      <c r="D87" s="13"/>
     </row>
     <row r="88" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A88" s="28"/>
-      <c r="B88" s="50" t="s">
+      <c r="A88" s="27"/>
+      <c r="B88" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="C88" s="29"/>
-      <c r="D88" s="30"/>
+      <c r="C88" s="28"/>
+      <c r="D88" s="29"/>
     </row>
     <row r="89" spans="1:4" ht="30" customHeight="1" thickBot="1">
-      <c r="A89" s="23" t="s">
+      <c r="A89" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="B89" s="12" t="s">
+      <c r="B89" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C89" s="13" t="s">
+      <c r="C89" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="D89" s="14"/>
+      <c r="D89" s="13"/>
     </row>
     <row r="90" spans="1:4" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A90" s="28"/>
-      <c r="B90" s="50" t="s">
+      <c r="A90" s="27"/>
+      <c r="B90" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="C90" s="29"/>
-      <c r="D90" s="30"/>
+      <c r="C90" s="28"/>
+      <c r="D90" s="29"/>
     </row>
     <row r="91" spans="1:4" ht="45" customHeight="1">
-      <c r="A91" s="26" t="s">
+      <c r="A91" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="B91" s="18" t="s">
+      <c r="B91" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="C91" s="19" t="s">
+      <c r="C91" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="D91" s="14"/>
+      <c r="D91" s="13"/>
     </row>
     <row r="92" spans="1:4" ht="60.75" thickBot="1">
-      <c r="A92" s="26" t="s">
+      <c r="A92" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="B92" s="18" t="s">
+      <c r="B92" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C92" s="19" t="s">
+      <c r="C92" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="D92" s="14"/>
+      <c r="D92" s="13"/>
     </row>
     <row r="93" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A93" s="28"/>
-      <c r="B93" s="50" t="s">
+      <c r="A93" s="27"/>
+      <c r="B93" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="C93" s="29"/>
-      <c r="D93" s="30"/>
+      <c r="C93" s="28"/>
+      <c r="D93" s="29"/>
     </row>
     <row r="94" spans="1:4" ht="30" customHeight="1" thickBot="1">
-      <c r="A94" s="23" t="s">
+      <c r="A94" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="B94" s="12" t="s">
+      <c r="B94" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C94" s="13" t="s">
+      <c r="C94" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="D94" s="14"/>
+      <c r="D94" s="13"/>
     </row>
     <row r="95" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A95" s="28"/>
-      <c r="B95" s="50" t="s">
+      <c r="A95" s="27"/>
+      <c r="B95" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="C95" s="29"/>
-      <c r="D95" s="30"/>
+      <c r="C95" s="28"/>
+      <c r="D95" s="29"/>
     </row>
     <row r="96" spans="1:4" ht="60">
-      <c r="A96" s="23" t="s">
+      <c r="A96" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="B96" s="12" t="s">
+      <c r="B96" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C96" s="13" t="s">
+      <c r="C96" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D96" s="14"/>
+      <c r="D96" s="13"/>
     </row>
     <row r="97" spans="1:4" ht="45">
-      <c r="A97" s="23" t="s">
+      <c r="A97" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="B97" s="12" t="s">
+      <c r="B97" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="C97" s="13" t="s">
+      <c r="C97" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="D97" s="14"/>
+      <c r="D97" s="13"/>
     </row>
     <row r="98" spans="1:4" ht="30.75" thickBot="1">
-      <c r="A98" s="27" t="s">
+      <c r="A98" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="B98" s="20" t="s">
+      <c r="B98" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C98" s="21" t="s">
+      <c r="C98" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D98" s="22"/>
+      <c r="D98" s="21"/>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="5"/>
@@ -2738,8 +2745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2753,225 +2760,225 @@
   <sheetData>
     <row r="2" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="59" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="74" t="s">
         <v>142</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="E4" s="94"/>
+      <c r="E4" s="92"/>
     </row>
     <row r="5" spans="1:5" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A5" s="68"/>
-      <c r="B5" s="69" t="s">
+      <c r="A5" s="67"/>
+      <c r="B5" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="17"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" spans="1:5" ht="45" customHeight="1">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="77" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="64" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="71" t="s">
         <v>141</v>
       </c>
-      <c r="E6" s="17"/>
+      <c r="E6" s="16"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A7" s="79"/>
-      <c r="B7" s="69" t="s">
+      <c r="A7" s="78"/>
+      <c r="B7" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="17"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:5" ht="48.75" customHeight="1" thickBot="1">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="79" t="s">
         <v>143</v>
       </c>
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="80" t="s">
         <v>175</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="81" t="s">
         <v>144</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="82" t="s">
         <v>144</v>
       </c>
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="76" t="s">
         <v>145</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="86" t="s">
         <v>146</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="D9" s="71" t="s">
+      <c r="D9" s="70" t="s">
         <v>161</v>
       </c>
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" ht="30">
-      <c r="A10" s="84"/>
-      <c r="B10" s="88" t="s">
+      <c r="A10" s="83"/>
+      <c r="B10" s="87" t="s">
         <v>147</v>
       </c>
-      <c r="C10" s="66"/>
-      <c r="D10" s="85"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="84"/>
       <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A11" s="79"/>
-      <c r="B11" s="89" t="s">
+      <c r="A11" s="78"/>
+      <c r="B11" s="88" t="s">
         <v>148</v>
       </c>
-      <c r="C11" s="70"/>
-      <c r="D11" s="73"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="72"/>
       <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5" ht="30">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="B12" s="90" t="s">
+      <c r="B12" s="89" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="D12" s="72" t="s">
+      <c r="D12" s="71" t="s">
         <v>152</v>
       </c>
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A13" s="79"/>
-      <c r="B13" s="91" t="s">
+      <c r="A13" s="78"/>
+      <c r="B13" s="90" t="s">
         <v>151</v>
       </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="74"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="73"/>
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" ht="30">
-      <c r="A14" s="77" t="s">
+      <c r="A14" s="76" t="s">
         <v>153</v>
       </c>
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="89" t="s">
         <v>154</v>
       </c>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="D14" s="72" t="s">
+      <c r="D14" s="71" t="s">
         <v>156</v>
       </c>
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A15" s="79"/>
-      <c r="B15" s="91" t="s">
+      <c r="A15" s="78"/>
+      <c r="B15" s="90" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="74"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="73"/>
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" ht="30">
-      <c r="A16" s="77" t="s">
+      <c r="A16" s="76" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="90" t="s">
+      <c r="B16" s="89" t="s">
         <v>158</v>
       </c>
-      <c r="C16" s="65" t="s">
+      <c r="C16" s="64" t="s">
         <v>160</v>
       </c>
-      <c r="D16" s="72" t="s">
+      <c r="D16" s="71" t="s">
         <v>160</v>
       </c>
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A17" s="79"/>
-      <c r="B17" s="91" t="s">
+      <c r="A17" s="78"/>
+      <c r="B17" s="90" t="s">
         <v>159</v>
       </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="74"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="73"/>
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="77" t="s">
+      <c r="A18" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="90" t="s">
+      <c r="B18" s="89" t="s">
         <v>162</v>
       </c>
-      <c r="C18" s="65" t="s">
+      <c r="C18" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="D18" s="72" t="s">
+      <c r="D18" s="71" t="s">
         <v>164</v>
       </c>
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A19" s="79"/>
-      <c r="B19" s="91" t="s">
+      <c r="A19" s="78"/>
+      <c r="B19" s="90" t="s">
         <v>163</v>
       </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="74"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="73"/>
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" ht="30">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="66" t="s">
         <v>165</v>
       </c>
-      <c r="B20" s="90" t="s">
+      <c r="B20" s="89" t="s">
         <v>166</v>
       </c>
-      <c r="C20" s="65" t="s">
+      <c r="C20" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="D20" s="72" t="s">
+      <c r="D20" s="71" t="s">
         <v>168</v>
       </c>
       <c r="E20" s="6" t="s">
@@ -2979,82 +2986,102 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="30.75" thickBot="1">
-      <c r="A21" s="68"/>
-      <c r="B21" s="91" t="s">
+      <c r="A21" s="67"/>
+      <c r="B21" s="90" t="s">
         <v>167</v>
       </c>
-      <c r="C21" s="70"/>
-      <c r="D21" s="74"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="73"/>
       <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1">
-      <c r="A22" s="77" t="s">
+      <c r="A22" s="76" t="s">
         <v>169</v>
       </c>
-      <c r="B22" s="90" t="s">
+      <c r="B22" s="89" t="s">
         <v>170</v>
       </c>
-      <c r="C22" s="65" t="s">
+      <c r="C22" s="64" t="s">
         <v>174</v>
       </c>
-      <c r="D22" s="72" t="s">
+      <c r="D22" s="71" t="s">
         <v>174</v>
       </c>
       <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5" ht="36.75" customHeight="1">
-      <c r="A23" s="84"/>
-      <c r="B23" s="92" t="s">
+      <c r="A23" s="83"/>
+      <c r="B23" s="91" t="s">
         <v>171</v>
       </c>
-      <c r="C23" s="66"/>
-      <c r="D23" s="86"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="85"/>
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5" ht="45" customHeight="1">
-      <c r="A24" s="84"/>
-      <c r="B24" s="92" t="s">
+      <c r="A24" s="83"/>
+      <c r="B24" s="91" t="s">
         <v>172</v>
       </c>
-      <c r="C24" s="66"/>
-      <c r="D24" s="86"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="85"/>
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A25" s="79"/>
-      <c r="B25" s="91" t="s">
+      <c r="A25" s="78"/>
+      <c r="B25" s="90" t="s">
         <v>173</v>
       </c>
-      <c r="C25" s="70"/>
-      <c r="D25" s="74"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="73"/>
       <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:5" ht="30.75" customHeight="1">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="76" t="s">
         <v>176</v>
       </c>
-      <c r="B26" s="90" t="s">
+      <c r="B26" s="89" t="s">
         <v>162</v>
       </c>
-      <c r="C26" s="65" t="s">
+      <c r="C26" s="64" t="s">
         <v>178</v>
       </c>
-      <c r="D26" s="72" t="s">
+      <c r="D26" s="71" t="s">
         <v>178</v>
       </c>
       <c r="E26" s="9"/>
     </row>
     <row r="27" spans="1:5" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A27" s="93"/>
-      <c r="B27" s="91" t="s">
+      <c r="A27" s="78"/>
+      <c r="B27" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="C27" s="70"/>
-      <c r="D27" s="74"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="73"/>
       <c r="E27" s="9"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" ht="32.25" customHeight="1">
+      <c r="A28" s="66" t="s">
+        <v>181</v>
+      </c>
+      <c r="B28" s="89" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="D28" s="71" t="s">
+        <v>183</v>
+      </c>
       <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="1:5" ht="42" customHeight="1" thickBot="1">
+      <c r="A29" s="67"/>
+      <c r="B29" s="90" t="s">
+        <v>182</v>
+      </c>
+      <c r="C29" s="69"/>
+      <c r="D29" s="73"/>
     </row>
     <row r="30" spans="1:5" ht="75" customHeight="1">
       <c r="A30" s="9" t="s">
@@ -3068,8 +3095,12 @@
       <c r="A32" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="36">
     <mergeCell ref="A30:A32"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="D28:D29"/>
     <mergeCell ref="C22:C25"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="D22:D25"/>

--- a/iSpring/Usabiluty.xlsx
+++ b/iSpring/Usabiluty.xlsx
@@ -867,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:C15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
